--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed2/result_data_RandomForest.xlsx
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.2109</v>
+        <v>-12.35249999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.97910000000001</v>
+        <v>-13.38220000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.138</v>
+        <v>-12.1345</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.719099999999998</v>
+        <v>-7.641699999999998</v>
       </c>
     </row>
     <row r="25">
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.7471</v>
+        <v>-11.65040000000001</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.088799999999997</v>
+        <v>-8.327499999999993</v>
       </c>
     </row>
     <row r="29">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.5689</v>
+        <v>-7.7137</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.086700000000002</v>
+        <v>-7.231099999999998</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.649499999999993</v>
+        <v>-7.748699999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.327999999999994</v>
+        <v>-8.078300000000002</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.917600000000005</v>
+        <v>-7.927700000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.15669999999999</v>
+        <v>-11.8085</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.928899999999993</v>
+        <v>-8.086599999999994</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.930500000000002</v>
+        <v>-7.924999999999998</v>
       </c>
     </row>
     <row r="55">
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.95329999999999</v>
+        <v>-14.21489999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.794</v>
+        <v>-13.05930000000001</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.8919</v>
+        <v>-10.7491</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.989400000000001</v>
+        <v>-6.9779</v>
       </c>
     </row>
     <row r="71">
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.11130000000001</v>
+        <v>-11.93620000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.94179999999998</v>
+        <v>-13.49889999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.320199999999994</v>
+        <v>-8.303599999999998</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.456399999999991</v>
+        <v>-8.273999999999992</v>
       </c>
     </row>
     <row r="88">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.2256</v>
+        <v>-10.32509999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.9415</v>
+        <v>-7.978500000000002</v>
       </c>
     </row>
     <row r="102">
